--- a/Code/Results/Cases/Case_3_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_223/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.92343832636729</v>
+        <v>11.96456286565524</v>
       </c>
       <c r="C2">
-        <v>14.36823468718219</v>
+        <v>8.801405357756863</v>
       </c>
       <c r="D2">
-        <v>4.311706082542133</v>
+        <v>3.772924485062428</v>
       </c>
       <c r="F2">
-        <v>15.40287806803471</v>
+        <v>18.86780680257212</v>
       </c>
       <c r="G2">
-        <v>2.053733624519411</v>
+        <v>3.591024579417727</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.251991007884316</v>
+        <v>16.08450991216507</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.62767427639993</v>
+        <v>15.66766933099571</v>
       </c>
       <c r="O2">
-        <v>11.51388985120112</v>
+        <v>16.80014617381049</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.65471752129761</v>
+        <v>11.34279106816993</v>
       </c>
       <c r="C3">
-        <v>13.51447169811386</v>
+        <v>8.348062187880306</v>
       </c>
       <c r="D3">
-        <v>4.11136591231053</v>
+        <v>3.69361935843098</v>
       </c>
       <c r="F3">
-        <v>14.8563013603496</v>
+        <v>18.8513307742994</v>
       </c>
       <c r="G3">
-        <v>2.05824761364698</v>
+        <v>3.592772287137118</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.463290773103775</v>
+        <v>16.19128804063394</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.62454220511681</v>
+        <v>15.68426547690728</v>
       </c>
       <c r="O3">
-        <v>11.33907941045216</v>
+        <v>16.8508199938014</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.82977425905086</v>
+        <v>10.94323668414463</v>
       </c>
       <c r="C4">
-        <v>12.96135760120045</v>
+        <v>8.055207346206162</v>
       </c>
       <c r="D4">
-        <v>3.982820833631315</v>
+        <v>3.643533991449324</v>
       </c>
       <c r="F4">
-        <v>14.52896061074452</v>
+        <v>18.84812358596501</v>
       </c>
       <c r="G4">
-        <v>2.061108324906744</v>
+        <v>3.593902828334248</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.604003468376662</v>
+        <v>16.26095388935468</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.62629103684222</v>
+        <v>15.69617869804967</v>
       </c>
       <c r="O4">
-        <v>11.2451920386492</v>
+        <v>16.88709242250533</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.48204614283574</v>
+        <v>10.77610577943572</v>
       </c>
       <c r="C5">
-        <v>12.72874599168203</v>
+        <v>7.9322965003129</v>
       </c>
       <c r="D5">
-        <v>3.929084789797752</v>
+        <v>3.62279049056314</v>
       </c>
       <c r="F5">
-        <v>14.39784163910222</v>
+        <v>18.84855428127793</v>
       </c>
       <c r="G5">
-        <v>2.062296943997146</v>
+        <v>3.594378021260976</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.663951447753803</v>
+        <v>16.29037431790672</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.62790902239862</v>
+        <v>15.70146762440504</v>
       </c>
       <c r="O5">
-        <v>11.21025199123972</v>
+        <v>16.90316548451424</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.42360826316695</v>
+        <v>10.74809889869187</v>
       </c>
       <c r="C6">
-        <v>12.68968732263303</v>
+        <v>7.911674145520613</v>
       </c>
       <c r="D6">
-        <v>3.920081527336125</v>
+        <v>3.619326421313865</v>
       </c>
       <c r="F6">
-        <v>14.37621264548775</v>
+        <v>18.84873071918852</v>
       </c>
       <c r="G6">
-        <v>2.062495706567853</v>
+        <v>3.594457803033553</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.674058997866291</v>
+        <v>16.29532180547576</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.62823184500643</v>
+        <v>15.70237209642761</v>
       </c>
       <c r="O6">
-        <v>11.20464863665266</v>
+        <v>16.90591225798765</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.82513146682459</v>
+        <v>10.94099990941261</v>
       </c>
       <c r="C7">
-        <v>12.95824963982233</v>
+        <v>8.053564071208964</v>
       </c>
       <c r="D7">
-        <v>3.982101551679155</v>
+        <v>3.643255564238816</v>
       </c>
       <c r="F7">
-        <v>14.52718282018342</v>
+        <v>18.84812235981918</v>
       </c>
       <c r="G7">
-        <v>2.061124261912934</v>
+        <v>3.593909178231333</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.604801585723486</v>
+        <v>16.26134649003671</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.62630921554713</v>
+        <v>15.69624826716918</v>
       </c>
       <c r="O7">
-        <v>11.24470747556943</v>
+        <v>16.88730396659476</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.4955126741855</v>
+        <v>11.75395571061043</v>
       </c>
       <c r="C8">
-        <v>14.07988206194649</v>
+        <v>8.648143320417944</v>
       </c>
       <c r="D8">
-        <v>4.243799006855712</v>
+        <v>3.745878626054751</v>
       </c>
       <c r="F8">
-        <v>15.21282209569394</v>
+        <v>18.86069261116054</v>
       </c>
       <c r="G8">
-        <v>2.055271831653422</v>
+        <v>3.591615293600293</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.322472676090348</v>
+        <v>16.12047476475101</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.62582130277359</v>
+        <v>15.67303459553761</v>
       </c>
       <c r="O8">
-        <v>11.45079199592359</v>
+        <v>16.81654472918864</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.40738256425398</v>
+        <v>13.2012850025827</v>
       </c>
       <c r="C9">
-        <v>16.0486233457784</v>
+        <v>9.696413105269441</v>
       </c>
       <c r="D9">
-        <v>4.711679850948171</v>
+        <v>3.93539630774414</v>
       </c>
       <c r="F9">
-        <v>16.61448404880672</v>
+        <v>18.9400644039153</v>
       </c>
       <c r="G9">
-        <v>2.044480804879461</v>
+        <v>3.587570754520698</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.863612124680442</v>
+        <v>15.87682606079939</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.65482384827678</v>
+        <v>15.64114517519807</v>
       </c>
       <c r="O9">
-        <v>11.96359674146276</v>
+        <v>16.71894093948198</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.32677791025489</v>
+        <v>14.16898751053592</v>
       </c>
       <c r="C10">
-        <v>17.35344971565337</v>
+        <v>10.39209109142616</v>
       </c>
       <c r="D10">
-        <v>5.026354903125072</v>
+        <v>4.0666402016398</v>
       </c>
       <c r="F10">
-        <v>17.66869212151438</v>
+        <v>19.031477752562</v>
       </c>
       <c r="G10">
-        <v>2.036939078443717</v>
+        <v>3.584873039449904</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.596265741971539</v>
+        <v>15.71774765006434</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.69555242935689</v>
+        <v>15.62597316410574</v>
       </c>
       <c r="O10">
-        <v>12.40830882202129</v>
+        <v>16.67260192347664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.15273108602931</v>
+        <v>14.58753690874995</v>
       </c>
       <c r="C11">
-        <v>17.91633931011676</v>
+        <v>10.69200778891165</v>
       </c>
       <c r="D11">
-        <v>5.162983285760942</v>
+        <v>4.124450742821742</v>
       </c>
       <c r="F11">
-        <v>18.1516991108351</v>
+        <v>19.08015457678044</v>
       </c>
       <c r="G11">
-        <v>2.033584693877458</v>
+        <v>3.583704634727616</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>8.492819842840529</v>
+        <v>15.64972037263279</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.71855241987342</v>
+        <v>15.62085194050762</v>
       </c>
       <c r="O11">
-        <v>12.6254871710312</v>
+        <v>16.6570810157421</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.4587613322175</v>
+        <v>14.7428584030605</v>
       </c>
       <c r="C12">
-        <v>18.12509220157463</v>
+        <v>10.80317484338449</v>
       </c>
       <c r="D12">
-        <v>5.21377079617207</v>
+        <v>4.146057792850065</v>
       </c>
       <c r="F12">
-        <v>18.33496580736132</v>
+        <v>19.0995959163563</v>
       </c>
       <c r="G12">
-        <v>2.032324818401025</v>
+        <v>3.583270600262051</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.456541841231061</v>
+        <v>15.62458552413423</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.72792620547238</v>
+        <v>15.6191676204987</v>
       </c>
       <c r="O12">
-        <v>12.70986124704518</v>
+        <v>16.65200640356145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.39315124419893</v>
+        <v>14.70954912011616</v>
       </c>
       <c r="C13">
-        <v>18.08032902328503</v>
+        <v>10.77934032274683</v>
       </c>
       <c r="D13">
-        <v>5.202875256065229</v>
+        <v>4.141417169754708</v>
       </c>
       <c r="F13">
-        <v>18.29548180359834</v>
+        <v>19.09536422516524</v>
       </c>
       <c r="G13">
-        <v>2.032595704887491</v>
+        <v>3.583363703726219</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.464221484519067</v>
+        <v>15.62997091031962</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.72587751398427</v>
+        <v>15.61951904632764</v>
       </c>
       <c r="O13">
-        <v>12.69159505995917</v>
+        <v>16.65306355719891</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.17804318653587</v>
+        <v>14.60037920988792</v>
       </c>
       <c r="C14">
-        <v>17.93360165371538</v>
+        <v>10.70120188909038</v>
       </c>
       <c r="D14">
-        <v>5.167180722496956</v>
+        <v>4.12623413789642</v>
       </c>
       <c r="F14">
-        <v>18.16676999016062</v>
+        <v>19.08173388803282</v>
       </c>
       <c r="G14">
-        <v>2.033480839319897</v>
+        <v>3.583668758030424</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.489775519973357</v>
+        <v>15.64763996498512</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.71931017364793</v>
+        <v>15.62070826667236</v>
       </c>
       <c r="O14">
-        <v>12.63238597814359</v>
+        <v>16.65664741677483</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.04540693676544</v>
+        <v>14.53309458532749</v>
       </c>
       <c r="C15">
-        <v>17.84315418944586</v>
+        <v>10.65302601468076</v>
       </c>
       <c r="D15">
-        <v>5.145192643977055</v>
+        <v>4.116896685981076</v>
       </c>
       <c r="F15">
-        <v>18.08797392528863</v>
+        <v>19.07351587642425</v>
       </c>
       <c r="G15">
-        <v>2.034024339262329</v>
+        <v>3.583856707298988</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.505813836271365</v>
+        <v>15.65854429754055</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.71537461607792</v>
+        <v>15.62146987137397</v>
       </c>
       <c r="O15">
-        <v>12.59639624453848</v>
+        <v>16.6589472783427</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.27185413268899</v>
+        <v>14.14119308480746</v>
       </c>
       <c r="C16">
-        <v>17.31604690923691</v>
+        <v>10.37215552120118</v>
       </c>
       <c r="D16">
-        <v>5.017293527868192</v>
+        <v>4.062822978798433</v>
       </c>
       <c r="F16">
-        <v>17.63718392079927</v>
+        <v>19.02843839451217</v>
       </c>
       <c r="G16">
-        <v>2.037159779701696</v>
+        <v>3.584950577193644</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.603415380148302</v>
+        <v>15.72228083855697</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.69414111454222</v>
+        <v>15.62634358766493</v>
       </c>
       <c r="O16">
-        <v>12.39441471503214</v>
+        <v>16.67372841826354</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.78524899822234</v>
+        <v>13.89517982449455</v>
       </c>
       <c r="C17">
-        <v>16.98483050292735</v>
+        <v>10.19559188181214</v>
       </c>
       <c r="D17">
-        <v>4.937151384295889</v>
+        <v>4.029156593125735</v>
       </c>
       <c r="F17">
-        <v>17.36141938044386</v>
+        <v>19.00259385792284</v>
       </c>
       <c r="G17">
-        <v>2.039102400690604</v>
+        <v>3.58563666214272</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.668137943908427</v>
+        <v>15.76249350460694</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.68227541240994</v>
+        <v>15.62978875976683</v>
       </c>
       <c r="O17">
-        <v>12.27431392624613</v>
+        <v>16.68422256721406</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.50092185461299</v>
+        <v>13.75164311324017</v>
       </c>
       <c r="C18">
-        <v>16.79143443769152</v>
+        <v>10.09248038739698</v>
       </c>
       <c r="D18">
-        <v>4.890442718543601</v>
+        <v>4.009615080313037</v>
       </c>
       <c r="F18">
-        <v>17.20313753755579</v>
+        <v>18.9883971428198</v>
       </c>
       <c r="G18">
-        <v>2.040226974310429</v>
+        <v>3.586036816920589</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.707056692931028</v>
+        <v>15.7860309949015</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.6758702536232</v>
+        <v>15.6319379968885</v>
       </c>
       <c r="O18">
-        <v>12.20663627215753</v>
+        <v>16.69078158433843</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.40388887560984</v>
+        <v>13.70269629501639</v>
       </c>
       <c r="C19">
-        <v>16.7254574300388</v>
+        <v>10.05730208997586</v>
       </c>
       <c r="D19">
-        <v>4.874523139744825</v>
+        <v>4.002968566034157</v>
       </c>
       <c r="F19">
-        <v>17.14960720462923</v>
+        <v>18.98370548979486</v>
       </c>
       <c r="G19">
-        <v>2.040608995755017</v>
+        <v>3.586173254645937</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.720516319428672</v>
+        <v>15.79407044625321</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.67377302066595</v>
+        <v>15.63269452030081</v>
       </c>
       <c r="O19">
-        <v>12.1839624929815</v>
+        <v>16.69309207729643</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.83750864509618</v>
+        <v>13.92157958008825</v>
       </c>
       <c r="C20">
-        <v>17.02038801519285</v>
+        <v>10.21454870051659</v>
       </c>
       <c r="D20">
-        <v>4.945746204843251</v>
+        <v>4.032758900163428</v>
       </c>
       <c r="F20">
-        <v>17.39074179749665</v>
+        <v>19.00527595479451</v>
       </c>
       <c r="G20">
-        <v>2.038894861573151</v>
+        <v>3.585563054477069</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.661071029748594</v>
+        <v>15.75817053509393</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.68349494990209</v>
+        <v>15.62940467022035</v>
       </c>
       <c r="O20">
-        <v>12.28695386840285</v>
+        <v>16.68305128571549</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.24140818070826</v>
+        <v>14.63253161278786</v>
       </c>
       <c r="C21">
-        <v>17.97681836221544</v>
+        <v>10.72421847901659</v>
       </c>
       <c r="D21">
-        <v>5.177690963324933</v>
+        <v>4.130701578570988</v>
       </c>
       <c r="F21">
-        <v>18.20456688155639</v>
+        <v>19.0857101787791</v>
       </c>
       <c r="G21">
-        <v>2.033220577979416</v>
+        <v>3.583578928123359</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.482188759373328</v>
+        <v>15.64243314200532</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.72122096523402</v>
+        <v>15.62035205259906</v>
       </c>
       <c r="O21">
-        <v>12.64971930106973</v>
+        <v>16.65557293719468</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.11967449503344</v>
+        <v>15.07865960344122</v>
       </c>
       <c r="C22">
-        <v>18.57625750081245</v>
+        <v>11.04329194220222</v>
       </c>
       <c r="D22">
-        <v>5.323734982800795</v>
+        <v>4.193049161486117</v>
       </c>
       <c r="F22">
-        <v>18.73851535740171</v>
+        <v>19.14415018959545</v>
       </c>
       <c r="G22">
-        <v>2.029572155717619</v>
+        <v>3.582331217744282</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.38229823569128</v>
+        <v>15.57043946335202</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.74975851544304</v>
+        <v>15.61592131317844</v>
       </c>
       <c r="O22">
-        <v>12.89923555266362</v>
+        <v>16.64229491415621</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.65450356639544</v>
+        <v>14.84226376835286</v>
       </c>
       <c r="C23">
-        <v>18.25866645406967</v>
+        <v>10.87428651254837</v>
       </c>
       <c r="D23">
-        <v>5.246299491429615</v>
+        <v>4.159929137368766</v>
       </c>
       <c r="F23">
-        <v>18.45338599109157</v>
+        <v>19.11242665776408</v>
       </c>
       <c r="G23">
-        <v>2.031514110146961</v>
+        <v>3.582992671132424</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.433955442189923</v>
+        <v>15.60852949733239</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.73416528803449</v>
+        <v>15.61815050834315</v>
       </c>
       <c r="O23">
-        <v>12.76493034867506</v>
+        <v>16.64895236110834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.81389630093043</v>
+        <v>13.90965078830017</v>
       </c>
       <c r="C24">
-        <v>17.00432173216647</v>
+        <v>10.20598331294688</v>
       </c>
       <c r="D24">
-        <v>4.94186245982469</v>
+        <v>4.031130876363633</v>
       </c>
       <c r="F24">
-        <v>17.37748431611235</v>
+        <v>19.00406131696288</v>
       </c>
       <c r="G24">
-        <v>2.038988665869012</v>
+        <v>3.585596314696526</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.664260679898879</v>
+        <v>15.76012364553277</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.68294230100353</v>
+        <v>15.6295777919634</v>
       </c>
       <c r="O24">
-        <v>12.28123508326309</v>
+        <v>16.68357918454212</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.65842995040034</v>
+        <v>12.82617718540578</v>
       </c>
       <c r="C25">
-        <v>15.54087480629751</v>
+        <v>9.425749559113413</v>
       </c>
       <c r="D25">
-        <v>4.590125965907688</v>
+        <v>3.88547323274899</v>
       </c>
       <c r="F25">
-        <v>16.23031095479291</v>
+        <v>18.91275307256808</v>
       </c>
       <c r="G25">
-        <v>2.047329821440032</v>
+        <v>3.588616623684047</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.976439463088855</v>
+        <v>15.93924395004476</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.64365221466852</v>
+        <v>15.64831804019256</v>
       </c>
       <c r="O25">
-        <v>11.8130079999843</v>
+        <v>16.7409086375336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_223/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.96456286565524</v>
+        <v>19.92343832636722</v>
       </c>
       <c r="C2">
-        <v>8.801405357756863</v>
+        <v>14.36823468718222</v>
       </c>
       <c r="D2">
-        <v>3.772924485062428</v>
+        <v>4.311706082542079</v>
       </c>
       <c r="F2">
-        <v>18.86780680257212</v>
+        <v>15.40287806803478</v>
       </c>
       <c r="G2">
-        <v>3.591024579417727</v>
+        <v>2.053733624519409</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.08450991216507</v>
+        <v>9.251991007884401</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.66766933099571</v>
+        <v>11.62767427639996</v>
       </c>
       <c r="O2">
-        <v>16.80014617381049</v>
+        <v>11.51388985120117</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.34279106816993</v>
+        <v>18.65471752129761</v>
       </c>
       <c r="C3">
-        <v>8.348062187880306</v>
+        <v>13.51447169811403</v>
       </c>
       <c r="D3">
-        <v>3.69361935843098</v>
+        <v>4.111365912310545</v>
       </c>
       <c r="F3">
-        <v>18.8513307742994</v>
+        <v>14.85630136034962</v>
       </c>
       <c r="G3">
-        <v>3.592772287137118</v>
+        <v>2.058247613647248</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.19128804063394</v>
+        <v>9.463290773103845</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.68426547690728</v>
+        <v>11.62454220511684</v>
       </c>
       <c r="O3">
-        <v>16.8508199938014</v>
+        <v>11.33907941045217</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.94323668414463</v>
+        <v>17.82977425905097</v>
       </c>
       <c r="C4">
-        <v>8.055207346206162</v>
+        <v>12.96135760120045</v>
       </c>
       <c r="D4">
-        <v>3.643533991449324</v>
+        <v>3.982820833631315</v>
       </c>
       <c r="F4">
-        <v>18.84812358596501</v>
+        <v>14.5289606107444</v>
       </c>
       <c r="G4">
-        <v>3.593902828334248</v>
+        <v>2.061108324906475</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.26095388935468</v>
+        <v>9.604003468376488</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.69617869804967</v>
+        <v>11.62629103684218</v>
       </c>
       <c r="O4">
-        <v>16.88709242250533</v>
+        <v>11.24519203864905</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.77610577943572</v>
+        <v>17.48204614283573</v>
       </c>
       <c r="C5">
-        <v>7.9322965003129</v>
+        <v>12.72874599168207</v>
       </c>
       <c r="D5">
-        <v>3.62279049056314</v>
+        <v>3.92908478979779</v>
       </c>
       <c r="F5">
-        <v>18.84855428127793</v>
+        <v>14.39784163910225</v>
       </c>
       <c r="G5">
-        <v>3.594378021260976</v>
+        <v>2.062296943997279</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.29037431790672</v>
+        <v>9.663951447753902</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.70146762440504</v>
+        <v>11.62790902239865</v>
       </c>
       <c r="O5">
-        <v>16.90316548451424</v>
+        <v>11.21025199123977</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.74809889869187</v>
+        <v>17.42360826316697</v>
       </c>
       <c r="C6">
-        <v>7.911674145520613</v>
+        <v>12.68968732263303</v>
       </c>
       <c r="D6">
-        <v>3.619326421313865</v>
+        <v>3.920081527336198</v>
       </c>
       <c r="F6">
-        <v>18.84873071918852</v>
+        <v>14.37621264548775</v>
       </c>
       <c r="G6">
-        <v>3.594457803033553</v>
+        <v>2.062495706567854</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.29532180547576</v>
+        <v>9.674058997866357</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.70237209642761</v>
+        <v>11.62823184500646</v>
       </c>
       <c r="O6">
-        <v>16.90591225798765</v>
+        <v>11.20464863665269</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.94099990941261</v>
+        <v>17.82513146682462</v>
       </c>
       <c r="C7">
-        <v>8.053564071208964</v>
+        <v>12.95824963982252</v>
       </c>
       <c r="D7">
-        <v>3.643255564238816</v>
+        <v>3.982101551679205</v>
       </c>
       <c r="F7">
-        <v>18.84812235981918</v>
+        <v>14.52718282018328</v>
       </c>
       <c r="G7">
-        <v>3.593909178231333</v>
+        <v>2.061124261912934</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.26134649003671</v>
+        <v>9.604801585723411</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.69624826716918</v>
+        <v>11.62630921554709</v>
       </c>
       <c r="O7">
-        <v>16.88730396659476</v>
+        <v>11.24470747556932</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75395571061043</v>
+        <v>19.49551267418554</v>
       </c>
       <c r="C8">
-        <v>8.648143320417944</v>
+        <v>14.07988206194637</v>
       </c>
       <c r="D8">
-        <v>3.745878626054751</v>
+        <v>4.243799006855718</v>
       </c>
       <c r="F8">
-        <v>18.86069261116054</v>
+        <v>15.212822095694</v>
       </c>
       <c r="G8">
-        <v>3.591615293600293</v>
+        <v>2.055271831653689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.12047476475101</v>
+        <v>9.322472676090365</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.67303459553761</v>
+        <v>11.62582130277361</v>
       </c>
       <c r="O8">
-        <v>16.81654472918864</v>
+        <v>11.45079199592364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.2012850025827</v>
+        <v>22.40738256425397</v>
       </c>
       <c r="C9">
-        <v>9.696413105269441</v>
+        <v>16.04862334577841</v>
       </c>
       <c r="D9">
-        <v>3.93539630774414</v>
+        <v>4.711679850948195</v>
       </c>
       <c r="F9">
-        <v>18.9400644039153</v>
+        <v>16.61448404880676</v>
       </c>
       <c r="G9">
-        <v>3.587570754520698</v>
+        <v>2.044480804879461</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.87682606079939</v>
+        <v>8.863612124680529</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.64114517519807</v>
+        <v>11.65482384827684</v>
       </c>
       <c r="O9">
-        <v>16.71894093948198</v>
+        <v>11.96359674146282</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.16898751053592</v>
+        <v>24.32677791025488</v>
       </c>
       <c r="C10">
-        <v>10.39209109142616</v>
+        <v>17.35344971565329</v>
       </c>
       <c r="D10">
-        <v>4.0666402016398</v>
+        <v>5.026354903125094</v>
       </c>
       <c r="F10">
-        <v>19.031477752562</v>
+        <v>17.6686921215144</v>
       </c>
       <c r="G10">
-        <v>3.584873039449904</v>
+        <v>2.036939078443583</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.71774765006434</v>
+        <v>8.596265741971493</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.62597316410574</v>
+        <v>11.69555242935686</v>
       </c>
       <c r="O10">
-        <v>16.67260192347664</v>
+        <v>12.40830882202129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.58753690874995</v>
+        <v>25.15273108602928</v>
       </c>
       <c r="C11">
-        <v>10.69200778891165</v>
+        <v>17.91633931011676</v>
       </c>
       <c r="D11">
-        <v>4.124450742821742</v>
+        <v>5.162983285760996</v>
       </c>
       <c r="F11">
-        <v>19.08015457678044</v>
+        <v>18.15169911083502</v>
       </c>
       <c r="G11">
-        <v>3.583704634727616</v>
+        <v>2.033584693877458</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.64972037263279</v>
+        <v>8.492819842840479</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.62085194050762</v>
+        <v>11.71855241987341</v>
       </c>
       <c r="O11">
-        <v>16.6570810157421</v>
+        <v>12.62548717103113</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.7428584030605</v>
+        <v>25.45876133221744</v>
       </c>
       <c r="C12">
-        <v>10.80317484338449</v>
+        <v>18.12509220157463</v>
       </c>
       <c r="D12">
-        <v>4.146057792850065</v>
+        <v>5.213770796172216</v>
       </c>
       <c r="F12">
-        <v>19.0995959163563</v>
+        <v>18.33496580736132</v>
       </c>
       <c r="G12">
-        <v>3.583270600262051</v>
+        <v>2.032324818401161</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.62458552413423</v>
+        <v>8.456541841231187</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.6191676204987</v>
+        <v>11.72792620547243</v>
       </c>
       <c r="O12">
-        <v>16.65200640356145</v>
+        <v>12.70986124704523</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.70954912011616</v>
+        <v>25.3931512441989</v>
       </c>
       <c r="C13">
-        <v>10.77934032274683</v>
+        <v>18.080329023285</v>
       </c>
       <c r="D13">
-        <v>4.141417169754708</v>
+        <v>5.202875256065187</v>
       </c>
       <c r="F13">
-        <v>19.09536422516524</v>
+        <v>18.29548180359834</v>
       </c>
       <c r="G13">
-        <v>3.583363703726219</v>
+        <v>2.032595704887491</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.62997091031962</v>
+        <v>8.464221484519056</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.61951904632764</v>
+        <v>11.72587751398424</v>
       </c>
       <c r="O13">
-        <v>16.65306355719891</v>
+        <v>12.69159505995916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60037920988792</v>
+        <v>25.17804318653589</v>
       </c>
       <c r="C14">
-        <v>10.70120188909038</v>
+        <v>17.93360165371533</v>
       </c>
       <c r="D14">
-        <v>4.12623413789642</v>
+        <v>5.167180722496942</v>
       </c>
       <c r="F14">
-        <v>19.08173388803282</v>
+        <v>18.16676999016066</v>
       </c>
       <c r="G14">
-        <v>3.583668758030424</v>
+        <v>2.033480839319764</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.64763996498512</v>
+        <v>8.489775519973367</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.62070826667236</v>
+        <v>11.71931017364793</v>
       </c>
       <c r="O14">
-        <v>16.65664741677483</v>
+        <v>12.6323859781436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.53309458532749</v>
+        <v>25.04540693676544</v>
       </c>
       <c r="C15">
-        <v>10.65302601468076</v>
+        <v>17.8431541894457</v>
       </c>
       <c r="D15">
-        <v>4.116896685981076</v>
+        <v>5.145192643977118</v>
       </c>
       <c r="F15">
-        <v>19.07351587642425</v>
+        <v>18.08797392528868</v>
       </c>
       <c r="G15">
-        <v>3.583856707298988</v>
+        <v>2.034024339262064</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.65854429754055</v>
+        <v>8.50581383627147</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.62146987137397</v>
+        <v>11.71537461607799</v>
       </c>
       <c r="O15">
-        <v>16.6589472783427</v>
+        <v>12.59639624453857</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.14119308480746</v>
+        <v>24.2718541326889</v>
       </c>
       <c r="C16">
-        <v>10.37215552120118</v>
+        <v>17.316046909237</v>
       </c>
       <c r="D16">
-        <v>4.062822978798433</v>
+        <v>5.017293527868219</v>
       </c>
       <c r="F16">
-        <v>19.02843839451217</v>
+        <v>17.63718392079929</v>
       </c>
       <c r="G16">
-        <v>3.584950577193644</v>
+        <v>2.037159779701965</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.72228083855697</v>
+        <v>8.603415380148517</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.62634358766493</v>
+        <v>11.6941411145423</v>
       </c>
       <c r="O16">
-        <v>16.67372841826354</v>
+        <v>12.39441471503221</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.89517982449455</v>
+        <v>23.78524899822238</v>
       </c>
       <c r="C17">
-        <v>10.19559188181214</v>
+        <v>16.98483050292733</v>
       </c>
       <c r="D17">
-        <v>4.029156593125735</v>
+        <v>4.937151384295862</v>
       </c>
       <c r="F17">
-        <v>19.00259385792284</v>
+        <v>17.36141938044388</v>
       </c>
       <c r="G17">
-        <v>3.58563666214272</v>
+        <v>2.039102400690872</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.76249350460694</v>
+        <v>8.668137943908389</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.62978875976683</v>
+        <v>11.68227541240993</v>
       </c>
       <c r="O17">
-        <v>16.68422256721406</v>
+        <v>12.27431392624611</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.75164311324017</v>
+        <v>23.50092185461289</v>
       </c>
       <c r="C18">
-        <v>10.09248038739698</v>
+        <v>16.79143443769155</v>
       </c>
       <c r="D18">
-        <v>4.009615080313037</v>
+        <v>4.890442718543632</v>
       </c>
       <c r="F18">
-        <v>18.9883971428198</v>
+        <v>17.20313753755587</v>
       </c>
       <c r="G18">
-        <v>3.586036816920589</v>
+        <v>2.040226974310431</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.7860309949015</v>
+        <v>8.707056692931255</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.6319379968885</v>
+        <v>11.67587025362324</v>
       </c>
       <c r="O18">
-        <v>16.69078158433843</v>
+        <v>12.20663627215766</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.70269629501639</v>
+        <v>23.40388887560994</v>
       </c>
       <c r="C19">
-        <v>10.05730208997586</v>
+        <v>16.72545743003863</v>
       </c>
       <c r="D19">
-        <v>4.002968566034157</v>
+        <v>4.874523139744877</v>
       </c>
       <c r="F19">
-        <v>18.98370548979486</v>
+        <v>17.14960720462919</v>
       </c>
       <c r="G19">
-        <v>3.586173254645937</v>
+        <v>2.04060899575475</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.79407044625321</v>
+        <v>8.72051631942861</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.63269452030081</v>
+        <v>11.67377302066594</v>
       </c>
       <c r="O19">
-        <v>16.69309207729643</v>
+        <v>12.18396249298148</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.92157958008825</v>
+        <v>23.83750864509621</v>
       </c>
       <c r="C20">
-        <v>10.21454870051659</v>
+        <v>17.02038801519302</v>
       </c>
       <c r="D20">
-        <v>4.032758900163428</v>
+        <v>4.945746204843164</v>
       </c>
       <c r="F20">
-        <v>19.00527595479451</v>
+        <v>17.39074179749668</v>
       </c>
       <c r="G20">
-        <v>3.585563054477069</v>
+        <v>2.03889486157342</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.75817053509393</v>
+        <v>8.661071029748557</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.62940467022035</v>
+        <v>11.68349494990205</v>
       </c>
       <c r="O20">
-        <v>16.68305128571549</v>
+        <v>12.28695386840283</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.63253161278786</v>
+        <v>25.24140818070831</v>
       </c>
       <c r="C21">
-        <v>10.72421847901659</v>
+        <v>17.97681836221534</v>
       </c>
       <c r="D21">
-        <v>4.130701578570988</v>
+        <v>5.177690963324967</v>
       </c>
       <c r="F21">
-        <v>19.0857101787791</v>
+        <v>18.2045668815564</v>
       </c>
       <c r="G21">
-        <v>3.583578928123359</v>
+        <v>2.033220577979416</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.64243314200532</v>
+        <v>8.482188759373257</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.62035205259906</v>
+        <v>11.721220965234</v>
       </c>
       <c r="O21">
-        <v>16.65557293719468</v>
+        <v>12.64971930106971</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.07865960344122</v>
+        <v>26.11967449503343</v>
       </c>
       <c r="C22">
-        <v>11.04329194220222</v>
+        <v>18.57625750081239</v>
       </c>
       <c r="D22">
-        <v>4.193049161486117</v>
+        <v>5.32373498280083</v>
       </c>
       <c r="F22">
-        <v>19.14415018959545</v>
+        <v>18.73851535740175</v>
       </c>
       <c r="G22">
-        <v>3.582331217744282</v>
+        <v>2.029572155717619</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.57043946335202</v>
+        <v>8.382298235691334</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.61592131317844</v>
+        <v>11.74975851544304</v>
       </c>
       <c r="O22">
-        <v>16.64229491415621</v>
+        <v>12.89923555266365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.84226376835286</v>
+        <v>25.65450356639542</v>
       </c>
       <c r="C23">
-        <v>10.87428651254837</v>
+        <v>18.25866645406969</v>
       </c>
       <c r="D23">
-        <v>4.159929137368766</v>
+        <v>5.246299491429616</v>
       </c>
       <c r="F23">
-        <v>19.11242665776408</v>
+        <v>18.45338599109162</v>
       </c>
       <c r="G23">
-        <v>3.582992671132424</v>
+        <v>2.031514110146827</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.60852949733239</v>
+        <v>8.433955442190054</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.61815050834315</v>
+        <v>11.73416528803452</v>
       </c>
       <c r="O23">
-        <v>16.64895236110834</v>
+        <v>12.76493034867514</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.90965078830017</v>
+        <v>23.81389630093046</v>
       </c>
       <c r="C24">
-        <v>10.20598331294688</v>
+        <v>17.00432173216639</v>
       </c>
       <c r="D24">
-        <v>4.031130876363633</v>
+        <v>4.941862459824747</v>
       </c>
       <c r="F24">
-        <v>19.00406131696288</v>
+        <v>17.37748431611235</v>
       </c>
       <c r="G24">
-        <v>3.585596314696526</v>
+        <v>2.038988665868879</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.76012364553277</v>
+        <v>8.6642606798989</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.6295777919634</v>
+        <v>11.68294230100362</v>
       </c>
       <c r="O24">
-        <v>16.68357918454212</v>
+        <v>12.28123508326312</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.82617718540578</v>
+        <v>21.65842995040036</v>
       </c>
       <c r="C25">
-        <v>9.425749559113413</v>
+        <v>15.5408748062973</v>
       </c>
       <c r="D25">
-        <v>3.88547323274899</v>
+        <v>4.59012596590774</v>
       </c>
       <c r="F25">
-        <v>18.91275307256808</v>
+        <v>16.23031095479291</v>
       </c>
       <c r="G25">
-        <v>3.588616623684047</v>
+        <v>2.047329821440034</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.93924395004476</v>
+        <v>8.976439463088779</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.64831804019256</v>
+        <v>11.64365221466849</v>
       </c>
       <c r="O25">
-        <v>16.7409086375336</v>
+        <v>11.81300799998433</v>
       </c>
     </row>
   </sheetData>
